--- a/Saturn/TestModel_v1.xlsx
+++ b/Saturn/TestModel_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubhav\Desktop\Projects\Saturn\Test Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubhav\Desktop\Projects\Saturn\Saturn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D36934-1CEF-4DC5-909C-9F031D65317F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6057D2B6-89BC-4F90-B884-CE9BD08562A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36108" yWindow="19500" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{6C8827F4-A16C-4968-AD38-CC02E648186F}"/>
   </bookViews>
